--- a/新东方雅思词汇（乱序版）—— 错误总结.xlsx
+++ b/新东方雅思词汇（乱序版）—— 错误总结.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuekexin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuekexin/Desktop/IELTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="1860" windowWidth="28100" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="1440" windowWidth="28100" windowHeight="17440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Word List 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <r>
       <rPr>
@@ -33,6 +34,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -203,7 +205,7 @@
   </si>
   <si>
     <t>词性</t>
-    <rPh sb="0" eb="29">
+    <rPh sb="0" eb="2">
       <t>ci'xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,7 +274,7 @@
   </si>
   <si>
     <t>罚款，代价</t>
-    <rPh sb="0" eb="55">
+    <rPh sb="0" eb="5">
       <t>fan'kua</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +291,17 @@
     <t>拆除，废除，取消</t>
     <rPh sb="0" eb="2">
       <t>chai'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导层，层次，等级</t>
+    <rPh sb="0" eb="3">
+      <t>ling'dao'ceng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +339,7 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -979,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1063,6 +1077,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新东方雅思词汇（乱序版）—— 错误总结.xlsx
+++ b/新东方雅思词汇（乱序版）—— 错误总结.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1440" windowWidth="28100" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="14860" yWindow="2700" windowWidth="28100" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Word List 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Word List 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -305,12 +306,110 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>preserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护，维持；保存，保藏；腌渍</t>
+    <rPh sb="0" eb="2">
+      <t>bao'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabrication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捏造，伪造；制作；构成</t>
+    <rPh sb="0" eb="2">
+      <t>nie'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epitomise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中体现；概括</t>
+    <rPh sb="0" eb="4">
+      <t>ji'zhong'ti'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确无误的；精确的</t>
+    <rPh sb="0" eb="5">
+      <t>zheng'que'wu'wu'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambassador</t>
+    <rPh sb="0" eb="1">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大使，使节</t>
+    <rPh sb="0" eb="2">
+      <t>da'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌手，对手；反对者</t>
+    <rPh sb="0" eb="2">
+      <t>di'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对立的，对抗的</t>
+    <rPh sb="0" eb="82">
+      <t>dui'li'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养；滋养</t>
+    <rPh sb="0" eb="2">
+      <t>pei'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养品</t>
+    <rPh sb="0" eb="83">
+      <t>yi'g'yang'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,13 +440,37 @@
       <name val="等线 (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +498,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -733,7 +862,9 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -754,6 +885,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
@@ -995,24 +1129,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1092,4 +1227,127 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/新东方雅思词汇（乱序版）—— 错误总结.xlsx
+++ b/新东方雅思词汇（乱序版）—— 错误总结.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="2700" windowWidth="28100" windowHeight="17440"/>
+    <workbookView xWindow="17000" yWindow="1840" windowWidth="28100" windowHeight="17440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Word List 1" sheetId="2" r:id="rId2"/>
     <sheet name="Word List 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Word List 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Word List 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Word List 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Word List 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
   <si>
     <r>
       <rPr>
@@ -381,7 +385,7 @@
   </si>
   <si>
     <t>对立的，对抗的</t>
-    <rPh sb="0" eb="82">
+    <rPh sb="0" eb="7">
       <t>dui'li'de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,8 +403,456 @@
   </si>
   <si>
     <t>营养品</t>
-    <rPh sb="0" eb="83">
+    <rPh sb="0" eb="3">
       <t>yi'g'yang'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修长的，细长的；苗条的；微笑的，微薄的</t>
+    <rPh sb="0" eb="3">
+      <t>xiu'chang'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义务的；必须得；强制性的；必修的</t>
+    <rPh sb="0" eb="3">
+      <t>yi'wu'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irritation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激怒，恼怒；刺激物，恼人的事</t>
+    <rPh sb="0" eb="2">
+      <t>ji'nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留意见，存疑；预定，预订</t>
+    <rPh sb="0" eb="4">
+      <t>bao'liu'yi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗产；遗赠</t>
+    <rPh sb="0" eb="2">
+      <t>yi'chan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <rPh sb="0" eb="2">
+      <t>jia'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.</t>
+    <rPh sb="0" eb="1">
+      <t>n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀；磨损</t>
+    <rPh sb="0" eb="1">
+      <t>n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronounceable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发得出的；可发音的</t>
+    <rPh sb="0" eb="4">
+      <t>fa'de'chu'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cruise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航油，巡航；缓慢巡行</t>
+    <rPh sb="0" eb="2">
+      <t>hang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航游，游曳</t>
+    <rPh sb="0" eb="1">
+      <t>hang'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者，管理人员；行政人员</t>
+    <rPh sb="0" eb="3">
+      <t>guan'li'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counsellor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谦逊的，谦虚的；地位低下的，卑贱的；简陋的，低劣的</t>
+    <rPh sb="0" eb="3">
+      <t>qian'xun'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使谦恭；使卑下；贬低</t>
+    <rPh sb="0" eb="10">
+      <t>shi'qian'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问，辅导顾问</t>
+    <rPh sb="0" eb="2">
+      <t>gu'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断力；谨慎，审慎；明智</t>
+    <rPh sb="0" eb="3">
+      <t>pan'duan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵犯版权者；海盗</t>
+    <rPh sb="0" eb="5">
+      <t>qin'fan'ban'quan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗用，盗版</t>
+    <rPh sb="0" eb="2">
+      <t>dao'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrepit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确，精确；精确度</t>
+    <rPh sb="0" eb="2">
+      <t>zhun'que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备，预备；制剂</t>
+    <rPh sb="0" eb="2">
+      <t>zhun'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrewd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机灵的；精明的</t>
+    <rPh sb="0" eb="3">
+      <t>ji'ling'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（暗中）摸索</t>
+    <rPh sb="0" eb="2">
+      <t>an'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃避责任；旷课</t>
+    <rPh sb="0" eb="7">
+      <t>tai'vu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃学者；逃避者</t>
+    <rPh sb="0" eb="7">
+      <t>tao'xue'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychiatric</t>
+    <rPh sb="0" eb="1">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神病的；治疗精神病的</t>
+    <rPh sb="0" eb="11">
+      <t>chou'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolster</t>
+    <rPh sb="0" eb="1">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持，支撑；改善</t>
+    <rPh sb="0" eb="8">
+      <t>zhi'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫子</t>
+    <rPh sb="0" eb="2">
+      <t>dian'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alluvial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲积的，淤积的</t>
+    <rPh sb="0" eb="7">
+      <t>cgi'b'g'hu'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slum</t>
+    <rPh sb="0" eb="1">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫民窟，贫民区</t>
+    <rPh sb="0" eb="3">
+      <t>pin'min'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断奶，戒掉</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/73</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破旧的；衰老的</t>
+    <rPh sb="0" eb="10">
+      <t>po'jie'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>souvenir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念品，纪念物</t>
+    <rPh sb="0" eb="1">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soluble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可溶的；可解决的</t>
+    <rPh sb="0" eb="288">
+      <t>je'ri'b'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔楼，角楼</t>
+    <rPh sb="0" eb="85">
+      <t>taki'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alcohol</t>
+    <rPh sb="0" eb="1">
+      <t>lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含酒精饮料，酒；酒精</t>
+    <rPh sb="0" eb="5">
+      <t>han'jiu'jing'yin'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养育，滋养，培养</t>
+    <rPh sb="0" eb="1">
+      <t>tabg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crisp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆的；利落的</t>
+    <rPh sb="0" eb="65">
+      <t>cui'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸土豆片</t>
+    <rPh sb="0" eb="2">
+      <t>you'zha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝</t>
+    <rPh sb="0" eb="2">
+      <t>lie'feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破裂</t>
+    <rPh sb="0" eb="2">
+      <t>po'lie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,7 +861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,6 +909,13 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -822,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -854,6 +1313,9 @@
       <c r="H1" s="2">
         <v>43256</v>
       </c>
+      <c r="I1" s="2">
+        <v>43257</v>
+      </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -862,10 +1324,6 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -885,7 +1343,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7</v>
       </c>
     </row>
@@ -893,20 +1351,32 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1234,7 +1704,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1350,4 +1820,527 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="229" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="185" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>